--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H2">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.6931635513724446</v>
+        <v>0.1931847777706667</v>
       </c>
       <c r="R2">
-        <v>6.238471962352</v>
+        <v>1.738662999936</v>
       </c>
       <c r="S2">
-        <v>0.006054312246313201</v>
+        <v>0.001174605983224669</v>
       </c>
       <c r="T2">
-        <v>0.006054312246313201</v>
+        <v>0.001174605983224669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H3">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>17.60168963906812</v>
+        <v>6.773404896690667</v>
       </c>
       <c r="R3">
-        <v>158.415206751613</v>
+        <v>60.960644070216</v>
       </c>
       <c r="S3">
-        <v>0.1537387892462267</v>
+        <v>0.04118379310351742</v>
       </c>
       <c r="T3">
-        <v>0.1537387892462267</v>
+        <v>0.04118379310351743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>78.478283</v>
       </c>
       <c r="I4">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J4">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
         <v>1.358755552243556</v>
@@ -697,10 +697,10 @@
         <v>12.228799970192</v>
       </c>
       <c r="S4">
-        <v>0.0118678057485947</v>
+        <v>0.008261532921085866</v>
       </c>
       <c r="T4">
-        <v>0.0118678057485947</v>
+        <v>0.008261532921085866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>78.478283</v>
       </c>
       <c r="I5">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J5">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>34.50324743503589</v>
+        <v>47.64040737152523</v>
       </c>
       <c r="R5">
-        <v>310.529226915323</v>
+        <v>428.763666343727</v>
       </c>
       <c r="S5">
-        <v>0.3013624029565737</v>
+        <v>0.2896641660259785</v>
       </c>
       <c r="T5">
-        <v>0.3013624029565737</v>
+        <v>0.2896641660259786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H6">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I6">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J6">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>0.1897978738755556</v>
+        <v>0.3272112163342222</v>
       </c>
       <c r="R6">
-        <v>1.70818086488</v>
+        <v>2.944900947008</v>
       </c>
       <c r="S6">
-        <v>0.001657755359256566</v>
+        <v>0.001989516238907091</v>
       </c>
       <c r="T6">
-        <v>0.001657755359256566</v>
+        <v>0.001989516238907091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H7">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I7">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J7">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>4.819588773093889</v>
+        <v>11.47261228626089</v>
       </c>
       <c r="R7">
-        <v>43.376298957845</v>
+        <v>103.253510576348</v>
       </c>
       <c r="S7">
-        <v>0.04209583044775183</v>
+        <v>0.06975600867815923</v>
       </c>
       <c r="T7">
-        <v>0.04209583044775184</v>
+        <v>0.06975600867815925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H8">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I8">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J8">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.155824</v>
       </c>
       <c r="O8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q8">
-        <v>2.096164601237334</v>
+        <v>2.681567978840889</v>
       </c>
       <c r="R8">
-        <v>18.865481411136</v>
+        <v>24.134111809568</v>
       </c>
       <c r="S8">
-        <v>0.01830857232817841</v>
+        <v>0.01630452372447979</v>
       </c>
       <c r="T8">
-        <v>0.01830857232817842</v>
+        <v>0.01630452372447979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H9">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I9">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J9">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N9">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O9">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P9">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q9">
-        <v>53.22847496860933</v>
+        <v>94.02058427321755</v>
       </c>
       <c r="R9">
-        <v>479.0562747174841</v>
+        <v>846.1852584589581</v>
       </c>
       <c r="S9">
-        <v>0.4649145316671047</v>
+        <v>0.5716658533246475</v>
       </c>
       <c r="T9">
-        <v>0.4649145316671049</v>
+        <v>0.5716658533246475</v>
       </c>
     </row>
   </sheetData>
